--- a/posesiones/1381285.xlsx
+++ b/posesiones/1381285.xlsx
@@ -1847,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>17</v>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>27</v>
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <v>17</v>
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R10">
         <v>17</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>7</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>8</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>12</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3044,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>28</v>
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>16</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>16</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3300,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>14</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>11</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>16</v>
@@ -3603,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>16</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>17</v>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>18</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3950,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>33</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>16</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>17</v>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4259,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R51">
         <v>10</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53">
         <v>19</v>
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R54">
         <v>14</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4659,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R59">
         <v>17</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4900,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R65">
         <v>16</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R67">
         <v>13</v>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5153,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R69">
         <v>29</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R71">
         <v>26</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5356,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R73">
         <v>5</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R78">
         <v>14</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5800,7 +5800,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R82">
         <v>27</v>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5903,7 +5903,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R84">
         <v>8</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6003,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R86">
         <v>20</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6435,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R95">
         <v>13</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6582,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R98">
         <v>13</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6685,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R100">
         <v>24</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R102">
         <v>3</v>
@@ -6838,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7029,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R107">
         <v>4</v>
@@ -7082,7 +7082,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R108">
         <v>0</v>
@@ -7126,10 +7126,10 @@
         <v>1</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7358,10 +7358,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R115">
         <v>27</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7511,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R117">
         <v>27</v>
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R118">
         <v>20</v>
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7667,7 +7667,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R120">
         <v>10</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7814,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R123">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R124">
         <v>11</v>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7967,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8017,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R127">
         <v>26</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8449,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R138">
         <v>31</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8737,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8834,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R144">
         <v>14</v>
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9028,7 +9028,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R148">
         <v>29</v>
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9131,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R150">
         <v>10</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9278,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9469,7 +9469,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R157">
         <v>7</v>
@@ -9522,7 +9522,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R158">
         <v>19</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9622,7 +9622,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R160">
         <v>16</v>
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9722,7 +9722,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R162">
         <v>17</v>
@@ -9775,7 +9775,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R163">
         <v>24</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9919,7 +9919,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R166">
         <v>17</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10019,7 +10019,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R168">
         <v>13</v>
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10119,7 +10119,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R170">
         <v>5</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10263,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R174">
         <v>19</v>
@@ -10366,7 +10366,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R175">
         <v>21</v>
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10469,7 +10469,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R177">
         <v>9</v>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10613,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10660,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10710,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R182">
         <v>0</v>
@@ -10763,7 +10763,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R183">
         <v>6</v>
@@ -10813,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10863,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R185">
         <v>3</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R187">
         <v>21</v>
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11063,7 +11063,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R189">
         <v>20</v>
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11163,7 +11163,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R191">
         <v>14</v>
@@ -11216,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R193">
         <v>14</v>
@@ -11319,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11369,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R195">
         <v>12</v>
@@ -11419,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11469,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R197">
         <v>25</v>
@@ -11522,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R198">
         <v>26</v>
@@ -11572,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11666,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11713,7 +11713,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11760,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11854,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11901,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11951,7 +11951,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R207">
         <v>21</v>
@@ -12004,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12054,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R209">
         <v>18</v>
@@ -12104,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12154,7 +12154,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R211">
         <v>6</v>
@@ -12204,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12251,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12304,7 +12304,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R214">
         <v>7</v>
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12398,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12492,7 +12492,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12683,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R222">
         <v>0</v>
@@ -12736,7 +12736,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R223">
         <v>16</v>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R225">
         <v>17</v>
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R227">
         <v>0</v>
@@ -12986,10 +12986,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q228">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13036,7 +13036,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13177,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13406,10 +13406,10 @@
         <v>1</v>
       </c>
       <c r="P237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q237">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13506,7 +13506,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13556,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R240">
         <v>12</v>
@@ -13609,7 +13609,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R241">
         <v>23</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R243">
         <v>6</v>
@@ -13762,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13812,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R245">
         <v>6</v>
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13912,7 +13912,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R247">
         <v>13</v>
@@ -13965,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14012,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14059,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14109,7 +14109,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R251">
         <v>24</v>
@@ -14162,7 +14162,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14212,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R253">
         <v>13</v>
@@ -14262,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14312,7 +14312,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R255">
         <v>5</v>
@@ -14362,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14412,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R257">
         <v>16</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14509,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14556,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14606,7 +14606,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R261">
         <v>20</v>
@@ -14656,7 +14656,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R262">
         <v>28</v>
@@ -14709,7 +14709,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R263">
         <v>18</v>
@@ -14762,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R265">
         <v>4</v>
@@ -14862,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14909,7 +14909,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14956,7 +14956,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15006,7 +15006,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R269">
         <v>0</v>
@@ -15059,7 +15059,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R270">
         <v>19</v>
@@ -15112,7 +15112,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15162,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R272">
         <v>6</v>
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15259,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15306,7 +15306,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15353,7 +15353,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15403,7 +15403,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R277">
         <v>0</v>
@@ -15453,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15550,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R280">
         <v>26</v>
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15653,7 +15653,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R282">
         <v>7</v>
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15756,7 +15756,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R284">
         <v>7</v>
@@ -15806,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15856,7 +15856,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R286">
         <v>22</v>
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15959,7 +15959,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R288">
         <v>6</v>
@@ -16009,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16059,7 +16059,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R290">
         <v>17</v>
@@ -16112,7 +16112,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16162,7 +16162,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R292">
         <v>17</v>
@@ -16215,7 +16215,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16265,7 +16265,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R294">
         <v>7</v>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16365,7 +16365,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16412,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16459,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16506,7 +16506,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16603,7 +16603,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R301">
         <v>11</v>
@@ -16653,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16703,7 +16703,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R303">
         <v>21</v>
@@ -16753,7 +16753,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16800,7 +16800,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16847,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16894,7 +16894,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16944,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R308">
         <v>14</v>
@@ -16994,7 +16994,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17088,7 +17088,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17138,7 +17138,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R312">
         <v>20</v>
@@ -17191,7 +17191,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R313">
         <v>16</v>
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17294,7 +17294,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R315">
         <v>11</v>
@@ -17341,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17391,7 +17391,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R317">
         <v>10</v>
@@ -17441,7 +17441,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17491,7 +17491,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R319">
         <v>17</v>
@@ -17544,7 +17544,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R320">
         <v>22</v>
@@ -17597,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17647,7 +17647,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R322">
         <v>18</v>
@@ -17697,7 +17697,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17747,7 +17747,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R324">
         <v>6</v>
@@ -17800,7 +17800,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17894,7 +17894,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17941,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17988,7 +17988,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18035,7 +18035,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18082,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18132,7 +18132,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R332">
         <v>23</v>
@@ -18182,7 +18182,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18229,7 +18229,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18276,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18326,7 +18326,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R336">
         <v>12</v>
@@ -18379,7 +18379,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R337">
         <v>12</v>
@@ -18432,7 +18432,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R339">
         <v>15</v>
@@ -18535,7 +18535,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R340">
         <v>21</v>
@@ -18588,7 +18588,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R341">
         <v>15</v>
@@ -18638,7 +18638,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18685,7 +18685,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18732,7 +18732,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18779,7 +18779,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18826,7 +18826,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18873,7 +18873,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18920,7 +18920,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19014,7 +19014,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19061,7 +19061,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19111,7 +19111,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R352">
         <v>10</v>
@@ -19161,7 +19161,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19255,7 +19255,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19302,7 +19302,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R359">
         <v>0</v>
@@ -19499,7 +19499,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R360">
         <v>0</v>
@@ -19543,10 +19543,10 @@
         <v>1</v>
       </c>
       <c r="P361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q361">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19593,7 +19593,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19640,7 +19640,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19687,7 +19687,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19734,7 +19734,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19781,7 +19781,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19875,7 +19875,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19969,7 +19969,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20016,7 +20016,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20057,10 +20057,10 @@
         <v>1</v>
       </c>
       <c r="P372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q372">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20110,7 +20110,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R373">
         <v>12</v>
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20210,7 +20210,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R375">
         <v>19</v>
@@ -20263,7 +20263,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20310,7 +20310,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20357,7 +20357,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20404,7 +20404,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20451,7 +20451,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20548,7 +20548,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20595,7 +20595,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20642,7 +20642,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20689,7 +20689,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20736,7 +20736,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20786,7 +20786,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R387">
         <v>50</v>
@@ -20836,7 +20836,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20883,7 +20883,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20930,7 +20930,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20977,7 +20977,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21024,7 +21024,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21071,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21118,7 +21118,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21168,7 +21168,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R395">
         <v>24</v>
@@ -21218,7 +21218,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21265,7 +21265,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21362,7 +21362,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21409,7 +21409,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21459,7 +21459,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21509,7 +21509,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R402">
         <v>18</v>
@@ -21559,7 +21559,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21653,7 +21653,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21703,7 +21703,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R406">
         <v>23</v>
@@ -21756,7 +21756,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21806,7 +21806,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R408">
         <v>16</v>
@@ -21856,7 +21856,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21906,7 +21906,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21956,7 +21956,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R411">
         <v>12</v>
@@ -22009,7 +22009,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R412">
         <v>11</v>
@@ -22059,7 +22059,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22106,7 +22106,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22156,7 +22156,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22206,7 +22206,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R416">
         <v>36</v>
@@ -22256,7 +22256,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22300,7 +22300,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22347,7 +22347,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22394,7 +22394,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22441,7 +22441,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22488,7 +22488,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22538,7 +22538,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R423">
         <v>19</v>
@@ -22588,7 +22588,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22638,7 +22638,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R425">
         <v>8</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22738,7 +22738,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R427">
         <v>22</v>
@@ -22791,7 +22791,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22841,7 +22841,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R429">
         <v>18</v>
@@ -22891,7 +22891,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22941,7 +22941,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22991,7 +22991,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R432">
         <v>34</v>
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23094,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R434">
         <v>22</v>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23194,7 +23194,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R436">
         <v>17</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23294,7 +23294,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R438">
         <v>18</v>
@@ -23344,7 +23344,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23394,7 +23394,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23441,7 +23441,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23488,7 +23488,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23532,7 +23532,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23582,7 +23582,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R444">
         <v>2</v>
@@ -23635,7 +23635,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R445">
         <v>10</v>
@@ -23685,7 +23685,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23829,7 +23829,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R449">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23923,7 +23923,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23970,7 +23970,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24067,7 +24067,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24117,7 +24117,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R455">
         <v>38</v>
@@ -24167,7 +24167,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24217,7 +24217,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R457">
         <v>17</v>
@@ -24267,7 +24267,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24314,7 +24314,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24361,7 +24361,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24411,7 +24411,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R461">
         <v>22</v>
@@ -24464,7 +24464,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R462">
         <v>10</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24564,7 +24564,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R464">
         <v>23</v>
@@ -24617,7 +24617,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24711,7 +24711,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24758,7 +24758,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24808,7 +24808,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R469">
         <v>12</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24905,7 +24905,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24952,7 +24952,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24999,7 +24999,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25190,7 +25190,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R477">
         <v>23</v>
@@ -25237,7 +25237,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25287,7 +25287,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R479">
         <v>7</v>
@@ -25337,7 +25337,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25387,7 +25387,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25437,7 +25437,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R482">
         <v>20</v>
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25534,7 +25534,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25581,7 +25581,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25631,7 +25631,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R486">
         <v>10</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25731,7 +25731,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R488">
         <v>2</v>
@@ -25781,7 +25781,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25878,7 +25878,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25928,7 +25928,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R492">
         <v>2</v>
@@ -25978,7 +25978,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26075,7 +26075,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R495">
         <v>0</v>
@@ -26128,7 +26128,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26175,7 +26175,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26222,7 +26222,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26269,7 +26269,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26316,7 +26316,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26363,7 +26363,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26413,7 +26413,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R502">
         <v>3</v>
@@ -26463,7 +26463,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26513,7 +26513,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26560,7 +26560,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26610,7 +26610,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26660,7 +26660,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R507">
         <v>16</v>
@@ -26704,10 +26704,10 @@
         <v>1</v>
       </c>
       <c r="P508" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q508">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26748,7 +26748,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
